--- a/Trabajo 2. Modelos explicitos/Datos P2/curvas_DHV.xlsx
+++ b/Trabajo 2. Modelos explicitos/Datos P2/curvas_DHV.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950EB615-4C2E-4681-AB2F-21D069AB12B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307997FC-F88C-4CF2-83DC-618D8F94C97E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,13 +12,14 @@
     <sheet name="4S4P" sheetId="2" r:id="rId2"/>
     <sheet name="7S1P" sheetId="3" r:id="rId3"/>
     <sheet name="8S5P" sheetId="4" r:id="rId4"/>
+    <sheet name="CTJ30" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Vn(V)</t>
   </si>
@@ -31,11 +32,38 @@
   <si>
     <t>Irrad(W/m^2)</t>
   </si>
+  <si>
+    <t>Vmp [V]</t>
+  </si>
+  <si>
+    <t>Voc [V]</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Isc [mA]</t>
+  </si>
+  <si>
+    <t>Imp [mA]</t>
+  </si>
+  <si>
+    <t>FABRICANTE</t>
+  </si>
+  <si>
+    <t>CESI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,7 +116,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -124,7 +153,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -377,7 +406,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="763811672"/>
@@ -439,7 +468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="763810032"/>
@@ -487,7 +516,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -501,7 +530,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -538,7 +567,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -791,7 +820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="723475368"/>
@@ -853,7 +882,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="723472744"/>
@@ -901,7 +930,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -915,7 +944,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -952,7 +981,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1217,7 +1246,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="735707968"/>
@@ -1279,7 +1308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="735708624"/>
@@ -1327,7 +1356,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1341,7 +1370,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1378,7 +1407,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1631,7 +1660,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="735563840"/>
@@ -1693,7 +1722,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="735571384"/>
@@ -1741,7 +1770,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4141,7 +4170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4464,10 +4493,10 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B25"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
@@ -4676,10 +4705,10 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B25"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
@@ -4888,10 +4917,10 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B25"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
@@ -5100,10 +5129,10 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
@@ -5305,4 +5334,1084 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C3D4BB-B71D-4B7E-B587-600311F1A074}">
+  <dimension ref="A1:D133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1">
+        <v>473</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>454</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>8.72093E-3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2.18023E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>3.4883699999999997E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5.6686E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7.84884E-2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.48032399999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.13081400000000001</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.152616</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.16133700000000001</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.20058100000000001</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.47800900000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.21802299999999999</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.48263899999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.23982600000000001</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.265988</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.47800900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.30087199999999997</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.48148099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0.30959300000000001</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.47800900000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.32703500000000002</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.35755799999999999</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.37064000000000002</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0.44040699999999999</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.48032399999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>0.453488</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>0.49709300000000001</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>0.52761599999999997</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>0.54505800000000004</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>0.56686000000000003</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>0.61918600000000001</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>0.62790699999999999</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>0.69331399999999999</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>0.69767400000000002</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.48032399999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>0.71075600000000005</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.48032399999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>0.73691899999999999</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.48148099999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>0.77616300000000005</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>0.78488400000000003</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0.78924399999999995</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>0.80668600000000001</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>0.828488</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>0.83720899999999998</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>0.84592999999999996</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>0.86773299999999998</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>0.89825600000000005</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.47800900000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>0.98982599999999998</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>0.99854699999999996</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>1.02471</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.48032399999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>1.0552299999999999</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>1.0944799999999999</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>1.1032</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>1.1162799999999999</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>1.1686000000000001</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1.1686000000000001</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1.1729700000000001</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1.19041</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1.2340100000000001</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1.25145</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1.2732600000000001</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1.3125</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1.3125</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1.38663</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.46643499999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1.4084300000000001</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1.47384</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1.4912799999999999</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1.5436000000000001</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1.5436000000000001</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1.5697700000000001</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1.6308100000000001</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1.7311000000000001</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1.7659899999999999</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1.8052299999999999</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>1.8662799999999999</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.46759299999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1.8837200000000001</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1.9055200000000001</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>1.9229700000000001</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1.9927299999999999</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>2.0232600000000001</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>2.1061000000000001</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>2.1453500000000001</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.46527800000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>2.1671499999999999</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.46759299999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>2.1889500000000002</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.46411999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>2.2194799999999999</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.46759299999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>2.22384</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.46411999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>2.2412800000000002</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.46643499999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>2.2412800000000002</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.45949099999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>2.2805200000000001</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.460648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>2.2936000000000001</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.45717600000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>2.3284899999999999</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.460648</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>2.3328500000000001</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.44907399999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>2.3590100000000001</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.45138899999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>2.37209</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.44444400000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>2.3895300000000002</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.43518499999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>2.41134</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.41898099999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>2.41134</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.414352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>2.4287800000000002</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>2.42442</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.39699099999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>2.45058</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.38657399999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>2.4592999999999998</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.38078699999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>2.46366</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.36574099999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>2.46366</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.36111100000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>2.4811000000000001</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.35069400000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>2.48983</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.33680599999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>2.50291</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.32175900000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>2.5072700000000001</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.30671300000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>2.5247099999999998</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.296296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>2.5247099999999998</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.28703699999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>2.5290699999999999</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.27430599999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>2.5290699999999999</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.26851900000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>2.5465100000000001</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.25925900000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>2.5421499999999999</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.238426</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>2.5508700000000002</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.22338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>2.5508700000000002</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0.21643499999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>2.5639500000000002</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.20486099999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>2.55959</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.19675899999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>2.5639500000000002</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.18518499999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>2.5770300000000002</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.16550899999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>2.5944799999999999</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0.152778</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>2.5813999999999999</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0.14351900000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>2.59884</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.13078699999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>2.5901200000000002</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0.12037</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>2.59884</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0.11226899999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>2.6032000000000002</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0.10648100000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>2.59884</v>
+      </c>
+      <c r="B126" s="1">
+        <v>8.6805599999999997E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>2.6032000000000002</v>
+      </c>
+      <c r="B127" s="1">
+        <v>7.0601899999999995E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>2.6075599999999999</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5.9027799999999998E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>2.6206399999999999</v>
+      </c>
+      <c r="B129" s="1">
+        <v>4.6296299999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>2.6032000000000002</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>2.63808</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1.6203700000000001E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1.15741E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="B133" s="1">
+        <v>5.7870400000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Trabajo 2. Modelos explicitos/Datos P2/curvas_DHV.xlsx
+++ b/Trabajo 2. Modelos explicitos/Datos P2/curvas_DHV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307997FC-F88C-4CF2-83DC-618D8F94C97E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F13FC-4126-4FD9-879C-0C5714519788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4S1P" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,25 @@
     <sheet name="7S1P" sheetId="3" r:id="rId3"/>
     <sheet name="8S5P" sheetId="4" r:id="rId4"/>
     <sheet name="CTJ30" sheetId="5" r:id="rId5"/>
+    <sheet name="MLU" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Vn(V)</t>
   </si>
@@ -56,13 +68,22 @@
   <si>
     <t>CESI</t>
   </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,7 +116,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4492,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4705,7 +4726,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5129,7 +5150,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5338,10 +5359,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C3D4BB-B71D-4B7E-B587-600311F1A074}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5387,41 +5408,43 @@
         <v>2.61</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B3/B4</f>
+        <v>0.88505747126436785</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B2/B1</f>
+        <v>0.95983086680761098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>8.72093E-3</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>2.18023E-2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>3.4883699999999997E-2</v>
+        <v>8.72093E-3</v>
       </c>
       <c r="B9" s="1">
-        <v>0.47453699999999999</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>5.6686E-2</v>
+        <v>2.18023E-2</v>
       </c>
       <c r="B10" s="1">
         <v>0.47569400000000001</v>
@@ -5429,79 +5452,79 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>7.84884E-2</v>
+        <v>3.4883699999999997E-2</v>
       </c>
       <c r="B11" s="1">
-        <v>0.48032399999999997</v>
+        <v>0.47453699999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>0.13081400000000001</v>
+        <v>5.6686E-2</v>
       </c>
       <c r="B12" s="1">
-        <v>0.47222199999999998</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>0.152616</v>
+        <v>7.84884E-2</v>
       </c>
       <c r="B13" s="1">
-        <v>0.47569400000000001</v>
+        <v>0.48032399999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>0.16133700000000001</v>
+        <v>0.13081400000000001</v>
       </c>
       <c r="B14" s="1">
-        <v>0.47569400000000001</v>
+        <v>0.47222199999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>0.20058100000000001</v>
+        <v>0.152616</v>
       </c>
       <c r="B15" s="1">
-        <v>0.47800900000000002</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>0.21802299999999999</v>
+        <v>0.16133700000000001</v>
       </c>
       <c r="B16" s="1">
-        <v>0.48263899999999998</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>0.23982600000000001</v>
+        <v>0.20058100000000001</v>
       </c>
       <c r="B17" s="1">
-        <v>0.476852</v>
+        <v>0.47800900000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>0.265988</v>
+        <v>0.21802299999999999</v>
       </c>
       <c r="B18" s="1">
-        <v>0.47800900000000002</v>
+        <v>0.48263899999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>0.30087199999999997</v>
+        <v>0.23982600000000001</v>
       </c>
       <c r="B19" s="1">
-        <v>0.48148099999999999</v>
+        <v>0.476852</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>0.30959300000000001</v>
+        <v>0.265988</v>
       </c>
       <c r="B20" s="1">
         <v>0.47800900000000002</v>
@@ -5509,95 +5532,95 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>0.32703500000000002</v>
+        <v>0.30087199999999997</v>
       </c>
       <c r="B21" s="1">
-        <v>0.47569400000000001</v>
+        <v>0.48148099999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>0.35755799999999999</v>
+        <v>0.30959300000000001</v>
       </c>
       <c r="B22" s="1">
-        <v>0.476852</v>
+        <v>0.47800900000000002</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>0.37064000000000002</v>
+        <v>0.32703500000000002</v>
       </c>
       <c r="B23" s="1">
-        <v>0.47222199999999998</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>0.375</v>
+        <v>0.35755799999999999</v>
       </c>
       <c r="B24" s="1">
-        <v>0.47106500000000001</v>
+        <v>0.476852</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>0.44040699999999999</v>
+        <v>0.37064000000000002</v>
       </c>
       <c r="B25" s="1">
-        <v>0.48032399999999997</v>
+        <v>0.47222199999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>0.453488</v>
+        <v>0.375</v>
       </c>
       <c r="B26" s="1">
-        <v>0.476852</v>
+        <v>0.47106500000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>0.49709300000000001</v>
+        <v>0.44040699999999999</v>
       </c>
       <c r="B27" s="1">
-        <v>0.47569400000000001</v>
+        <v>0.48032399999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>0.52761599999999997</v>
+        <v>0.453488</v>
       </c>
       <c r="B28" s="1">
-        <v>0.47569400000000001</v>
+        <v>0.476852</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>0.54505800000000004</v>
+        <v>0.49709300000000001</v>
       </c>
       <c r="B29" s="1">
-        <v>0.47453699999999999</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>0.56686000000000003</v>
+        <v>0.52761599999999997</v>
       </c>
       <c r="B30" s="1">
-        <v>0.47453699999999999</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>0.61918600000000001</v>
+        <v>0.54505800000000004</v>
       </c>
       <c r="B31" s="1">
-        <v>0.47569400000000001</v>
+        <v>0.47453699999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>0.62790699999999999</v>
+        <v>0.56686000000000003</v>
       </c>
       <c r="B32" s="1">
         <v>0.47453699999999999</v>
@@ -5605,7 +5628,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>0.69331399999999999</v>
+        <v>0.61918600000000001</v>
       </c>
       <c r="B33" s="1">
         <v>0.47569400000000001</v>
@@ -5613,55 +5636,55 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>0.69767400000000002</v>
+        <v>0.62790699999999999</v>
       </c>
       <c r="B34" s="1">
-        <v>0.48032399999999997</v>
+        <v>0.47453699999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>0.71075600000000005</v>
+        <v>0.69331399999999999</v>
       </c>
       <c r="B35" s="1">
-        <v>0.48032399999999997</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>0.73691899999999999</v>
+        <v>0.69767400000000002</v>
       </c>
       <c r="B36" s="1">
-        <v>0.476852</v>
+        <v>0.48032399999999997</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>0.75</v>
+        <v>0.71075600000000005</v>
       </c>
       <c r="B37" s="1">
-        <v>0.48148099999999999</v>
+        <v>0.48032399999999997</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>0.77616300000000005</v>
+        <v>0.73691899999999999</v>
       </c>
       <c r="B38" s="1">
-        <v>0.47222199999999998</v>
+        <v>0.476852</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>0.78488400000000003</v>
+        <v>0.75</v>
       </c>
       <c r="B39" s="1">
-        <v>0.47106500000000001</v>
+        <v>0.48148099999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>0.78924399999999995</v>
+        <v>0.77616300000000005</v>
       </c>
       <c r="B40" s="1">
         <v>0.47222199999999998</v>
@@ -5669,7 +5692,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>0.80668600000000001</v>
+        <v>0.78488400000000003</v>
       </c>
       <c r="B41" s="1">
         <v>0.47106500000000001</v>
@@ -5677,15 +5700,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>0.828488</v>
+        <v>0.78924399999999995</v>
       </c>
       <c r="B42" s="1">
-        <v>0.47106500000000001</v>
+        <v>0.47222199999999998</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>0.83720899999999998</v>
+        <v>0.80668600000000001</v>
       </c>
       <c r="B43" s="1">
         <v>0.47106500000000001</v>
@@ -5693,127 +5716,127 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>0.84592999999999996</v>
+        <v>0.828488</v>
       </c>
       <c r="B44" s="1">
-        <v>0.46990700000000002</v>
+        <v>0.47106500000000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>0.86773299999999998</v>
+        <v>0.83720899999999998</v>
       </c>
       <c r="B45" s="1">
-        <v>0.47222199999999998</v>
+        <v>0.47106500000000001</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>0.89825600000000005</v>
+        <v>0.84592999999999996</v>
       </c>
       <c r="B46" s="1">
-        <v>0.47800900000000002</v>
+        <v>0.46990700000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>0.9375</v>
+        <v>0.86773299999999998</v>
       </c>
       <c r="B47" s="1">
-        <v>0.47453699999999999</v>
+        <v>0.47222199999999998</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>0.98982599999999998</v>
+        <v>0.89825600000000005</v>
       </c>
       <c r="B48" s="1">
-        <v>0.47453699999999999</v>
+        <v>0.47800900000000002</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>0.99854699999999996</v>
+        <v>0.9375</v>
       </c>
       <c r="B49" s="1">
-        <v>0.476852</v>
+        <v>0.47453699999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>1.02471</v>
+        <v>0.98982599999999998</v>
       </c>
       <c r="B50" s="1">
-        <v>0.48032399999999997</v>
+        <v>0.47453699999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>1.0552299999999999</v>
+        <v>0.99854699999999996</v>
       </c>
       <c r="B51" s="1">
-        <v>0.47106500000000001</v>
+        <v>0.476852</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>1.0944799999999999</v>
+        <v>1.02471</v>
       </c>
       <c r="B52" s="1">
-        <v>0.476852</v>
+        <v>0.48032399999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>1.1032</v>
+        <v>1.0552299999999999</v>
       </c>
       <c r="B53" s="1">
-        <v>0.47569400000000001</v>
+        <v>0.47106500000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>1.1162799999999999</v>
+        <v>1.0944799999999999</v>
       </c>
       <c r="B54" s="1">
-        <v>0.47106500000000001</v>
+        <v>0.476852</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>1.1686000000000001</v>
+        <v>1.1032</v>
       </c>
       <c r="B55" s="1">
-        <v>0.47106500000000001</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>1.1686000000000001</v>
+        <v>1.1162799999999999</v>
       </c>
       <c r="B56" s="1">
-        <v>0.47222199999999998</v>
+        <v>0.47106500000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>1.1729700000000001</v>
+        <v>1.1686000000000001</v>
       </c>
       <c r="B57" s="1">
-        <v>0.47453699999999999</v>
+        <v>0.47106500000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>1.19041</v>
+        <v>1.1686000000000001</v>
       </c>
       <c r="B58" s="1">
-        <v>0.47569400000000001</v>
+        <v>0.47222199999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>1.2340100000000001</v>
+        <v>1.1729700000000001</v>
       </c>
       <c r="B59" s="1">
         <v>0.47453699999999999</v>
@@ -5821,31 +5844,31 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>1.25145</v>
+        <v>1.19041</v>
       </c>
       <c r="B60" s="1">
-        <v>0.476852</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1.2732600000000001</v>
+        <v>1.2340100000000001</v>
       </c>
       <c r="B61" s="1">
-        <v>0.47569400000000001</v>
+        <v>0.47453699999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1.3125</v>
+        <v>1.25145</v>
       </c>
       <c r="B62" s="1">
-        <v>0.47569400000000001</v>
+        <v>0.476852</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1.3125</v>
+        <v>1.2732600000000001</v>
       </c>
       <c r="B63" s="1">
         <v>0.47569400000000001</v>
@@ -5853,55 +5876,55 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>1.38663</v>
+        <v>1.3125</v>
       </c>
       <c r="B64" s="1">
-        <v>0.46643499999999999</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1.4084300000000001</v>
+        <v>1.3125</v>
       </c>
       <c r="B65" s="1">
-        <v>0.47453699999999999</v>
+        <v>0.47569400000000001</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1.47384</v>
+        <v>1.38663</v>
       </c>
       <c r="B66" s="1">
-        <v>0.46990700000000002</v>
+        <v>0.46643499999999999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1.4912799999999999</v>
+        <v>1.4084300000000001</v>
       </c>
       <c r="B67" s="1">
-        <v>0.47106500000000001</v>
+        <v>0.47453699999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1.5436000000000001</v>
+        <v>1.47384</v>
       </c>
       <c r="B68" s="1">
-        <v>0.47453699999999999</v>
+        <v>0.46990700000000002</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1.5436000000000001</v>
+        <v>1.4912799999999999</v>
       </c>
       <c r="B69" s="1">
-        <v>0.47453699999999999</v>
+        <v>0.47106500000000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>1.5697700000000001</v>
+        <v>1.5436000000000001</v>
       </c>
       <c r="B70" s="1">
         <v>0.47453699999999999</v>
@@ -5909,7 +5932,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>1.6308100000000001</v>
+        <v>1.5436000000000001</v>
       </c>
       <c r="B71" s="1">
         <v>0.47453699999999999</v>
@@ -5917,15 +5940,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>1.7311000000000001</v>
+        <v>1.5697700000000001</v>
       </c>
       <c r="B72" s="1">
-        <v>0.47222199999999998</v>
+        <v>0.47453699999999999</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>1.7659899999999999</v>
+        <v>1.6308100000000001</v>
       </c>
       <c r="B73" s="1">
         <v>0.47453699999999999</v>
@@ -5933,47 +5956,47 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>1.8052299999999999</v>
+        <v>1.7311000000000001</v>
       </c>
       <c r="B74" s="1">
-        <v>0.46990700000000002</v>
+        <v>0.47222199999999998</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>1.8662799999999999</v>
+        <v>1.7659899999999999</v>
       </c>
       <c r="B75" s="1">
-        <v>0.46759299999999998</v>
+        <v>0.47453699999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>1.8837200000000001</v>
+        <v>1.8052299999999999</v>
       </c>
       <c r="B76" s="1">
-        <v>0.47222199999999998</v>
+        <v>0.46990700000000002</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>1.9055200000000001</v>
+        <v>1.8662799999999999</v>
       </c>
       <c r="B77" s="1">
-        <v>0.47222199999999998</v>
+        <v>0.46759299999999998</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>1.9229700000000001</v>
+        <v>1.8837200000000001</v>
       </c>
       <c r="B78" s="1">
-        <v>0.46990700000000002</v>
+        <v>0.47222199999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>1.9927299999999999</v>
+        <v>1.9055200000000001</v>
       </c>
       <c r="B79" s="1">
         <v>0.47222199999999998</v>
@@ -5981,7 +6004,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>2.0232600000000001</v>
+        <v>1.9229700000000001</v>
       </c>
       <c r="B80" s="1">
         <v>0.46990700000000002</v>
@@ -5989,39 +6012,39 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>2.1061000000000001</v>
+        <v>1.9927299999999999</v>
       </c>
       <c r="B81" s="1">
-        <v>0.46990700000000002</v>
+        <v>0.47222199999999998</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>2.1453500000000001</v>
+        <v>2.0232600000000001</v>
       </c>
       <c r="B82" s="1">
-        <v>0.46527800000000002</v>
+        <v>0.46990700000000002</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>2.1671499999999999</v>
+        <v>2.1061000000000001</v>
       </c>
       <c r="B83" s="1">
-        <v>0.46759299999999998</v>
+        <v>0.46990700000000002</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>2.1889500000000002</v>
+        <v>2.1453500000000001</v>
       </c>
       <c r="B84" s="1">
-        <v>0.46411999999999998</v>
+        <v>0.46527800000000002</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>2.2194799999999999</v>
+        <v>2.1671499999999999</v>
       </c>
       <c r="B85" s="1">
         <v>0.46759299999999998</v>
@@ -6029,7 +6052,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>2.22384</v>
+        <v>2.1889500000000002</v>
       </c>
       <c r="B86" s="1">
         <v>0.46411999999999998</v>
@@ -6037,39 +6060,39 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>2.2412800000000002</v>
+        <v>2.2194799999999999</v>
       </c>
       <c r="B87" s="1">
-        <v>0.46643499999999999</v>
+        <v>0.46759299999999998</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>2.2412800000000002</v>
+        <v>2.22384</v>
       </c>
       <c r="B88" s="1">
-        <v>0.45949099999999998</v>
+        <v>0.46411999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>2.2805200000000001</v>
+        <v>2.2412800000000002</v>
       </c>
       <c r="B89" s="1">
-        <v>0.460648</v>
+        <v>0.46643499999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>2.2936000000000001</v>
+        <v>2.2412800000000002</v>
       </c>
       <c r="B90" s="1">
-        <v>0.45717600000000003</v>
+        <v>0.45949099999999998</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>2.3284899999999999</v>
+        <v>2.2805200000000001</v>
       </c>
       <c r="B91" s="1">
         <v>0.460648</v>
@@ -6077,210 +6100,210 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>2.3328500000000001</v>
+        <v>2.2936000000000001</v>
       </c>
       <c r="B92" s="1">
-        <v>0.44907399999999997</v>
+        <v>0.45717600000000003</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>2.3590100000000001</v>
+        <v>2.3284899999999999</v>
       </c>
       <c r="B93" s="1">
-        <v>0.45138899999999998</v>
+        <v>0.460648</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>2.37209</v>
+        <v>2.3328500000000001</v>
       </c>
       <c r="B94" s="1">
-        <v>0.44444400000000001</v>
+        <v>0.44907399999999997</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>2.3895300000000002</v>
+        <v>2.3590100000000001</v>
       </c>
       <c r="B95" s="1">
-        <v>0.43518499999999999</v>
+        <v>0.45138899999999998</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>2.41134</v>
+        <v>2.37209</v>
       </c>
       <c r="B96" s="1">
-        <v>0.41898099999999999</v>
+        <v>0.44444400000000001</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>2.41134</v>
+        <v>2.3895300000000002</v>
       </c>
       <c r="B97" s="1">
-        <v>0.414352</v>
+        <v>0.43518499999999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>2.4287800000000002</v>
+        <v>2.41134</v>
       </c>
       <c r="B98" s="1">
-        <v>0.40625</v>
+        <v>0.41898099999999999</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>2.42442</v>
+        <v>2.41134</v>
       </c>
       <c r="B99" s="1">
-        <v>0.39699099999999998</v>
+        <v>0.414352</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>2.45058</v>
+        <v>2.4287800000000002</v>
       </c>
       <c r="B100" s="1">
-        <v>0.38657399999999997</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>2.4592999999999998</v>
+        <v>2.42442</v>
       </c>
       <c r="B101" s="1">
-        <v>0.38078699999999999</v>
+        <v>0.39699099999999998</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>2.46366</v>
+        <v>2.45058</v>
       </c>
       <c r="B102" s="1">
-        <v>0.36574099999999998</v>
+        <v>0.38657399999999997</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>2.46366</v>
+        <v>2.4592999999999998</v>
       </c>
       <c r="B103" s="1">
-        <v>0.36111100000000002</v>
+        <v>0.38078699999999999</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>2.4811000000000001</v>
+        <v>2.46366</v>
       </c>
       <c r="B104" s="1">
-        <v>0.35069400000000001</v>
+        <v>0.36574099999999998</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>2.48983</v>
+        <v>2.46366</v>
       </c>
       <c r="B105" s="1">
-        <v>0.33680599999999999</v>
+        <v>0.36111100000000002</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>2.50291</v>
+        <v>2.4811000000000001</v>
       </c>
       <c r="B106" s="1">
-        <v>0.32175900000000002</v>
+        <v>0.35069400000000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>2.5072700000000001</v>
+        <v>2.48983</v>
       </c>
       <c r="B107" s="1">
-        <v>0.30671300000000001</v>
+        <v>0.33680599999999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>2.5247099999999998</v>
+        <v>2.50291</v>
       </c>
       <c r="B108" s="1">
-        <v>0.296296</v>
+        <v>0.32175900000000002</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>2.5247099999999998</v>
+        <v>2.5072700000000001</v>
       </c>
       <c r="B109" s="1">
-        <v>0.28703699999999999</v>
+        <v>0.30671300000000001</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>2.5290699999999999</v>
+        <v>2.5247099999999998</v>
       </c>
       <c r="B110" s="1">
-        <v>0.27430599999999999</v>
+        <v>0.296296</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>2.5290699999999999</v>
+        <v>2.5247099999999998</v>
       </c>
       <c r="B111" s="1">
-        <v>0.26851900000000001</v>
+        <v>0.28703699999999999</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>2.5465100000000001</v>
+        <v>2.5290699999999999</v>
       </c>
       <c r="B112" s="1">
-        <v>0.25925900000000002</v>
+        <v>0.27430599999999999</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>2.5421499999999999</v>
+        <v>2.5290699999999999</v>
       </c>
       <c r="B113" s="1">
-        <v>0.238426</v>
+        <v>0.26851900000000001</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>2.5508700000000002</v>
+        <v>2.5465100000000001</v>
       </c>
       <c r="B114" s="1">
-        <v>0.22338</v>
+        <v>0.25925900000000002</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>2.5508700000000002</v>
+        <v>2.5421499999999999</v>
       </c>
       <c r="B115" s="1">
-        <v>0.21643499999999999</v>
+        <v>0.238426</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>2.5639500000000002</v>
+        <v>2.5508700000000002</v>
       </c>
       <c r="B116" s="1">
-        <v>0.20486099999999999</v>
+        <v>0.22338</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>2.55959</v>
+        <v>2.5508700000000002</v>
       </c>
       <c r="B117" s="1">
-        <v>0.19675899999999999</v>
+        <v>0.21643499999999999</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -6288,47 +6311,47 @@
         <v>2.5639500000000002</v>
       </c>
       <c r="B118" s="1">
-        <v>0.18518499999999999</v>
+        <v>0.20486099999999999</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>2.5770300000000002</v>
+        <v>2.55959</v>
       </c>
       <c r="B119" s="1">
-        <v>0.16550899999999999</v>
+        <v>0.19675899999999999</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>2.5944799999999999</v>
+        <v>2.5639500000000002</v>
       </c>
       <c r="B120" s="1">
-        <v>0.152778</v>
+        <v>0.18518499999999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>2.5813999999999999</v>
+        <v>2.5770300000000002</v>
       </c>
       <c r="B121" s="1">
-        <v>0.14351900000000001</v>
+        <v>0.16550899999999999</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>2.59884</v>
+        <v>2.5944799999999999</v>
       </c>
       <c r="B122" s="1">
-        <v>0.13078699999999999</v>
+        <v>0.152778</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>2.5901200000000002</v>
+        <v>2.5813999999999999</v>
       </c>
       <c r="B123" s="1">
-        <v>0.12037</v>
+        <v>0.14351900000000001</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -6336,15 +6359,15 @@
         <v>2.59884</v>
       </c>
       <c r="B124" s="1">
-        <v>0.11226899999999999</v>
+        <v>0.13078699999999999</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>2.6032000000000002</v>
+        <v>2.5901200000000002</v>
       </c>
       <c r="B125" s="1">
-        <v>0.10648100000000001</v>
+        <v>0.12037</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -6352,7 +6375,7 @@
         <v>2.59884</v>
       </c>
       <c r="B126" s="1">
-        <v>8.6805599999999997E-2</v>
+        <v>0.11226899999999999</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -6360,55 +6383,150 @@
         <v>2.6032000000000002</v>
       </c>
       <c r="B127" s="1">
-        <v>7.0601899999999995E-2</v>
+        <v>0.10648100000000001</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>2.6075599999999999</v>
+        <v>2.59884</v>
       </c>
       <c r="B128" s="1">
-        <v>5.9027799999999998E-2</v>
+        <v>8.6805599999999997E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>2.6206399999999999</v>
+        <v>2.6032000000000002</v>
       </c>
       <c r="B129" s="1">
-        <v>4.6296299999999999E-2</v>
+        <v>7.0601899999999995E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>2.6032000000000002</v>
+        <v>2.6075599999999999</v>
       </c>
       <c r="B130" s="1">
-        <v>3.125E-2</v>
+        <v>5.9027799999999998E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>2.63808</v>
+        <v>2.6206399999999999</v>
       </c>
       <c r="B131" s="1">
-        <v>1.6203700000000001E-2</v>
+        <v>4.6296299999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>2.625</v>
+        <v>2.6032000000000002</v>
       </c>
       <c r="B132" s="1">
-        <v>1.15741E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
+        <v>2.63808</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1.6203700000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
         <v>2.625</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B134" s="1">
+        <v>1.15741E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="B135" s="1">
         <v>5.7870400000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11630F1-ED86-4572-B248-164DC8A7D5C2}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1">
+        <v>8890</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8180</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B3/B4</f>
+        <v>0.82539682539682546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B2/B1</f>
+        <v>0.92013498312710906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajo 2. Modelos explicitos/Datos P2/curvas_DHV.xlsx
+++ b/Trabajo 2. Modelos explicitos/Datos P2/curvas_DHV.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F13FC-4126-4FD9-879C-0C5714519788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F295142-9521-4132-AB82-05F7D4E86F67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4S1P" sheetId="1" r:id="rId1"/>
-    <sheet name="4S4P" sheetId="2" r:id="rId2"/>
-    <sheet name="7S1P" sheetId="3" r:id="rId3"/>
-    <sheet name="8S5P" sheetId="4" r:id="rId4"/>
-    <sheet name="CTJ30" sheetId="5" r:id="rId5"/>
-    <sheet name="MLU" sheetId="6" r:id="rId6"/>
+    <sheet name="CTJ30" sheetId="5" r:id="rId2"/>
+    <sheet name="MLU" sheetId="6" r:id="rId3"/>
+    <sheet name="4S4P" sheetId="2" r:id="rId4"/>
+    <sheet name="7S1P" sheetId="3" r:id="rId5"/>
+    <sheet name="8S5P" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>Vn(V)</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>DHV</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'4S1P'!$B$4</c:f>
+              <c:f>'4S1P'!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -212,7 +215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'4S1P'!$A$5:$A$25</c:f>
+              <c:f>'4S1P'!$A$10:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -284,7 +287,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'4S1P'!$B$5:$B$25</c:f>
+              <c:f>'4S1P'!$B$10:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4511,208 +4514,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>23.026615</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>467.53302100000002</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+        <v>459.34665000000001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>9.8182189999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>10.999874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B3/B4</f>
+        <v>0.89257558768400425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B2/B1</f>
+        <v>0.98249028275587835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>-0.102809738</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>0.46753302099999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="C10">
+        <f>A10*B10</f>
+        <v>-4.8066947395358495E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>1.2886679999999999</v>
       </c>
-      <c r="B6">
+      <c r="B11">
         <v>0.466123287</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="C11">
+        <f t="shared" ref="C11:C30" si="0">A11*B11</f>
+        <v>0.60067816401171592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>2.680876</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>0.46628820900000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.2500608685910841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>4.072101</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>0.466061002</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.8978474723052019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>5.4638590000000002</v>
       </c>
-      <c r="B9">
+      <c r="B14">
         <v>0.464352979</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.5371592034859609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>6.8555060000000001</v>
       </c>
-      <c r="B10">
+      <c r="B15">
         <v>0.46609217200000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>3.1952976816990324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>8.2469830000000002</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <v>0.46525865300000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3.8369802018938994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>8.4434579999999997</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>0.46658995399999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>3.9396326798209316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>8.6393430000000002</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>0.46668321499999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4.0318363667277453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>8.8362669999999994</v>
       </c>
-      <c r="B14">
+      <c r="B19">
         <v>0.466533947</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>4.1224185202558488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>9.0327129999999993</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>0.46977314799999997</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>4.2433260209905237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>9.2288230000000002</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>0.46365609000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>4.2789999874820701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>9.4254940000000005</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>0.46472934399999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4.3803036434959362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>9.6220250000000007</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>0.45954890999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>4.4217911007427499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>9.8182189999999991</v>
       </c>
-      <c r="B19">
+      <c r="B24">
         <v>0.45934665000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>4.5099660066163496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>10.014918</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <v>0.44676739500000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4.4743388259986103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>10.212263</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <v>0.41196924600000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>4.2071382880636978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>10.40812</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <v>0.33564919399999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>3.49347708905528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>10.604875</v>
       </c>
-      <c r="B23">
+      <c r="B28">
         <v>0.220862738</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2.34222172864775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>10.802108</v>
       </c>
-      <c r="B24">
+      <c r="B29">
         <v>8.3216727000000004E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.89891607246051608</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>10.999874</v>
       </c>
-      <c r="B25">
+      <c r="B30">
         <v>1.5420259999999999E-3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.6962091704724E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4722,6 +4850,1183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C3D4BB-B71D-4B7E-B587-600311F1A074}">
+  <dimension ref="A1:D135"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1">
+        <v>473</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>454</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B3/B4</f>
+        <v>0.88505747126436785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B2/B1</f>
+        <v>0.95983086680761098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8.72093E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2.18023E-2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3.4883699999999997E-2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5.6686E-2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>7.84884E-2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.48032399999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.13081400000000001</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.152616</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.16133700000000001</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.20058100000000001</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.47800900000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.21802299999999999</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.48263899999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.23982600000000001</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0.265988</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.47800900000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.30087199999999997</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.48148099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.30959300000000001</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.47800900000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.32703500000000002</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.35755799999999999</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0.37064000000000002</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>0.44040699999999999</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.48032399999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>0.453488</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>0.49709300000000001</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>0.52761599999999997</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>0.54505800000000004</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>0.56686000000000003</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>0.61918600000000001</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>0.62790699999999999</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>0.69331399999999999</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>0.69767400000000002</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.48032399999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>0.71075600000000005</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.48032399999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>0.73691899999999999</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.48148099999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0.77616300000000005</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>0.78488400000000003</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>0.78924399999999995</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>0.80668600000000001</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>0.828488</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>0.83720899999999998</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>0.84592999999999996</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>0.86773299999999998</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>0.89825600000000005</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.47800900000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>0.98982599999999998</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>0.99854699999999996</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>1.02471</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.48032399999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>1.0552299999999999</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>1.0944799999999999</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>1.1032</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1.1162799999999999</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1.1686000000000001</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1.1686000000000001</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1.1729700000000001</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1.19041</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1.2340100000000001</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1.25145</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.476852</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1.2732600000000001</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1.3125</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1.3125</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.47569400000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1.38663</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.46643499999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1.4084300000000001</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1.47384</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1.4912799999999999</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.47106500000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1.5436000000000001</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>1.5436000000000001</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>1.5697700000000001</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>1.6308100000000001</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>1.7311000000000001</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>1.7659899999999999</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.47453699999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>1.8052299999999999</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>1.8662799999999999</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.46759299999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>1.8837200000000001</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>1.9055200000000001</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>1.9229700000000001</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>1.9927299999999999</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.47222199999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>2.0232600000000001</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>2.1061000000000001</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.46990700000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>2.1453500000000001</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.46527800000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>2.1671499999999999</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.46759299999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>2.1889500000000002</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.46411999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>2.2194799999999999</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.46759299999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>2.22384</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.46411999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>2.2412800000000002</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.46643499999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>2.2412800000000002</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.45949099999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>2.2805200000000001</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.460648</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>2.2936000000000001</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.45717600000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>2.3284899999999999</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.460648</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>2.3328500000000001</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.44907399999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>2.3590100000000001</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.45138899999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>2.37209</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.44444400000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>2.3895300000000002</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.43518499999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>2.41134</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.41898099999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>2.41134</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.414352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>2.4287800000000002</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>2.42442</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.39699099999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>2.45058</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0.38657399999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>2.4592999999999998</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.38078699999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>2.46366</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.36574099999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>2.46366</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.36111100000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>2.4811000000000001</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.35069400000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>2.48983</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0.33680599999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>2.50291</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0.32175900000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>2.5072700000000001</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0.30671300000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>2.5247099999999998</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.296296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>2.5247099999999998</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.28703699999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>2.5290699999999999</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.27430599999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>2.5290699999999999</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.26851900000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>2.5465100000000001</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.25925900000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>2.5421499999999999</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0.238426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>2.5508700000000002</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.22338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>2.5508700000000002</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.21643499999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>2.5639500000000002</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.20486099999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>2.55959</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.19675899999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>2.5639500000000002</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0.18518499999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>2.5770300000000002</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0.16550899999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>2.5944799999999999</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.152778</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>2.5813999999999999</v>
+      </c>
+      <c r="B123" s="1">
+        <v>0.14351900000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>2.59884</v>
+      </c>
+      <c r="B124" s="1">
+        <v>0.13078699999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>2.5901200000000002</v>
+      </c>
+      <c r="B125" s="1">
+        <v>0.12037</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>2.59884</v>
+      </c>
+      <c r="B126" s="1">
+        <v>0.11226899999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>2.6032000000000002</v>
+      </c>
+      <c r="B127" s="1">
+        <v>0.10648100000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>2.59884</v>
+      </c>
+      <c r="B128" s="1">
+        <v>8.6805599999999997E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>2.6032000000000002</v>
+      </c>
+      <c r="B129" s="1">
+        <v>7.0601899999999995E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>2.6075599999999999</v>
+      </c>
+      <c r="B130" s="1">
+        <v>5.9027799999999998E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>2.6206399999999999</v>
+      </c>
+      <c r="B131" s="1">
+        <v>4.6296299999999999E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>2.6032000000000002</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>2.63808</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1.6203700000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1.15741E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>2.625</v>
+      </c>
+      <c r="B135" s="1">
+        <v>5.7870400000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11630F1-ED86-4572-B248-164DC8A7D5C2}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1">
+        <v>8890</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8180</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B3/B4</f>
+        <v>0.82539682539682546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B2/B1</f>
+        <v>0.92013498312710906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -4933,7 +6238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -5145,7 +6450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -5355,1181 +6660,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C3D4BB-B71D-4B7E-B587-600311F1A074}">
-  <dimension ref="A1:D135"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="11.5546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1">
-        <v>473</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>454</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <f>B3/B4</f>
-        <v>0.88505747126436785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <f>B2/B1</f>
-        <v>0.95983086680761098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8.72093E-3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2.18023E-2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>3.4883699999999997E-2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>5.6686E-2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>7.84884E-2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.48032399999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>0.13081400000000001</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.47222199999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>0.152616</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>0.16133700000000001</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>0.20058100000000001</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.47800900000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>0.21802299999999999</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.48263899999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>0.23982600000000001</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.476852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>0.265988</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.47800900000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>0.30087199999999997</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.48148099999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>0.30959300000000001</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.47800900000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>0.32703500000000002</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>0.35755799999999999</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.476852</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>0.37064000000000002</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.47222199999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.47106500000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>0.44040699999999999</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.48032399999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>0.453488</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.476852</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>0.49709300000000001</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>0.52761599999999997</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>0.54505800000000004</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>0.56686000000000003</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>0.61918600000000001</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>0.62790699999999999</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>0.69331399999999999</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>0.69767400000000002</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.48032399999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>0.71075600000000005</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.48032399999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>0.73691899999999999</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.476852</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.48148099999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>0.77616300000000005</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.47222199999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>0.78488400000000003</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.47106500000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>0.78924399999999995</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.47222199999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>0.80668600000000001</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.47106500000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>0.828488</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.47106500000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>0.83720899999999998</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.47106500000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>0.84592999999999996</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0.46990700000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>0.86773299999999998</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0.47222199999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>0.89825600000000005</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0.47800900000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>0.98982599999999998</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>0.99854699999999996</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0.476852</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>1.02471</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0.48032399999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>1.0552299999999999</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0.47106500000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>1.0944799999999999</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0.476852</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>1.1032</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>1.1162799999999999</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0.47106500000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>1.1686000000000001</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0.47106500000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>1.1686000000000001</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0.47222199999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>1.1729700000000001</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>1.19041</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>1.2340100000000001</v>
-      </c>
-      <c r="B61" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>1.25145</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0.476852</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>1.2732600000000001</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>1.3125</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>1.3125</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0.47569400000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>1.38663</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0.46643499999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>1.4084300000000001</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>1.47384</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0.46990700000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>1.4912799999999999</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0.47106500000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>1.5436000000000001</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>1.5436000000000001</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>1.5697700000000001</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>1.6308100000000001</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>1.7311000000000001</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0.47222199999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>1.7659899999999999</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0.47453699999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>1.8052299999999999</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0.46990700000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>1.8662799999999999</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0.46759299999999998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>1.8837200000000001</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0.47222199999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>1.9055200000000001</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0.47222199999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>1.9229700000000001</v>
-      </c>
-      <c r="B80" s="1">
-        <v>0.46990700000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>1.9927299999999999</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0.47222199999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>2.0232600000000001</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0.46990700000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>2.1061000000000001</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0.46990700000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>2.1453500000000001</v>
-      </c>
-      <c r="B84" s="1">
-        <v>0.46527800000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>2.1671499999999999</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0.46759299999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>2.1889500000000002</v>
-      </c>
-      <c r="B86" s="1">
-        <v>0.46411999999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>2.2194799999999999</v>
-      </c>
-      <c r="B87" s="1">
-        <v>0.46759299999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>2.22384</v>
-      </c>
-      <c r="B88" s="1">
-        <v>0.46411999999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>2.2412800000000002</v>
-      </c>
-      <c r="B89" s="1">
-        <v>0.46643499999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>2.2412800000000002</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0.45949099999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>2.2805200000000001</v>
-      </c>
-      <c r="B91" s="1">
-        <v>0.460648</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>2.2936000000000001</v>
-      </c>
-      <c r="B92" s="1">
-        <v>0.45717600000000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>2.3284899999999999</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0.460648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>2.3328500000000001</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0.44907399999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>2.3590100000000001</v>
-      </c>
-      <c r="B95" s="1">
-        <v>0.45138899999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>2.37209</v>
-      </c>
-      <c r="B96" s="1">
-        <v>0.44444400000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>2.3895300000000002</v>
-      </c>
-      <c r="B97" s="1">
-        <v>0.43518499999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>2.41134</v>
-      </c>
-      <c r="B98" s="1">
-        <v>0.41898099999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>2.41134</v>
-      </c>
-      <c r="B99" s="1">
-        <v>0.414352</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>2.4287800000000002</v>
-      </c>
-      <c r="B100" s="1">
-        <v>0.40625</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>2.42442</v>
-      </c>
-      <c r="B101" s="1">
-        <v>0.39699099999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>2.45058</v>
-      </c>
-      <c r="B102" s="1">
-        <v>0.38657399999999997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>2.4592999999999998</v>
-      </c>
-      <c r="B103" s="1">
-        <v>0.38078699999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>2.46366</v>
-      </c>
-      <c r="B104" s="1">
-        <v>0.36574099999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>2.46366</v>
-      </c>
-      <c r="B105" s="1">
-        <v>0.36111100000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>2.4811000000000001</v>
-      </c>
-      <c r="B106" s="1">
-        <v>0.35069400000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>2.48983</v>
-      </c>
-      <c r="B107" s="1">
-        <v>0.33680599999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>2.50291</v>
-      </c>
-      <c r="B108" s="1">
-        <v>0.32175900000000002</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>2.5072700000000001</v>
-      </c>
-      <c r="B109" s="1">
-        <v>0.30671300000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>2.5247099999999998</v>
-      </c>
-      <c r="B110" s="1">
-        <v>0.296296</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>2.5247099999999998</v>
-      </c>
-      <c r="B111" s="1">
-        <v>0.28703699999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>2.5290699999999999</v>
-      </c>
-      <c r="B112" s="1">
-        <v>0.27430599999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>2.5290699999999999</v>
-      </c>
-      <c r="B113" s="1">
-        <v>0.26851900000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>2.5465100000000001</v>
-      </c>
-      <c r="B114" s="1">
-        <v>0.25925900000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>2.5421499999999999</v>
-      </c>
-      <c r="B115" s="1">
-        <v>0.238426</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>2.5508700000000002</v>
-      </c>
-      <c r="B116" s="1">
-        <v>0.22338</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>2.5508700000000002</v>
-      </c>
-      <c r="B117" s="1">
-        <v>0.21643499999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>2.5639500000000002</v>
-      </c>
-      <c r="B118" s="1">
-        <v>0.20486099999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>2.55959</v>
-      </c>
-      <c r="B119" s="1">
-        <v>0.19675899999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>2.5639500000000002</v>
-      </c>
-      <c r="B120" s="1">
-        <v>0.18518499999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>2.5770300000000002</v>
-      </c>
-      <c r="B121" s="1">
-        <v>0.16550899999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>2.5944799999999999</v>
-      </c>
-      <c r="B122" s="1">
-        <v>0.152778</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>2.5813999999999999</v>
-      </c>
-      <c r="B123" s="1">
-        <v>0.14351900000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>2.59884</v>
-      </c>
-      <c r="B124" s="1">
-        <v>0.13078699999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>2.5901200000000002</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0.12037</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>2.59884</v>
-      </c>
-      <c r="B126" s="1">
-        <v>0.11226899999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>2.6032000000000002</v>
-      </c>
-      <c r="B127" s="1">
-        <v>0.10648100000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>2.59884</v>
-      </c>
-      <c r="B128" s="1">
-        <v>8.6805599999999997E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>2.6032000000000002</v>
-      </c>
-      <c r="B129" s="1">
-        <v>7.0601899999999995E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>2.6075599999999999</v>
-      </c>
-      <c r="B130" s="1">
-        <v>5.9027799999999998E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>2.6206399999999999</v>
-      </c>
-      <c r="B131" s="1">
-        <v>4.6296299999999999E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>2.6032000000000002</v>
-      </c>
-      <c r="B132" s="1">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
-        <v>2.63808</v>
-      </c>
-      <c r="B133" s="1">
-        <v>1.6203700000000001E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>2.625</v>
-      </c>
-      <c r="B134" s="1">
-        <v>1.15741E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
-        <v>2.625</v>
-      </c>
-      <c r="B135" s="1">
-        <v>5.7870400000000002E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11630F1-ED86-4572-B248-164DC8A7D5C2}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1">
-        <v>8890</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>8180</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>37.799999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <f>B3/B4</f>
-        <v>0.82539682539682546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <f>B2/B1</f>
-        <v>0.92013498312710906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Trabajo 2. Modelos explicitos/Datos P2/curvas_DHV.xlsx
+++ b/Trabajo 2. Modelos explicitos/Datos P2/curvas_DHV.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F295142-9521-4132-AB82-05F7D4E86F67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BE813D-B768-47C2-8F9A-F8F59C4A99B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4S1P" sheetId="1" r:id="rId1"/>
     <sheet name="CTJ30" sheetId="5" r:id="rId2"/>
     <sheet name="MLU" sheetId="6" r:id="rId3"/>
-    <sheet name="4S4P" sheetId="2" r:id="rId4"/>
-    <sheet name="7S1P" sheetId="3" r:id="rId5"/>
-    <sheet name="8S5P" sheetId="4" r:id="rId6"/>
+    <sheet name="Resumen" sheetId="7" r:id="rId4"/>
+    <sheet name="4S4P" sheetId="2" r:id="rId5"/>
+    <sheet name="7S1P" sheetId="3" r:id="rId6"/>
+    <sheet name="8S5P" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Vn(V)</t>
   </si>
@@ -79,6 +80,24 @@
   </si>
   <si>
     <t>DHV</t>
+  </si>
+  <si>
+    <t>Isc [A]</t>
+  </si>
+  <si>
+    <t>Imp [A]</t>
+  </si>
+  <si>
+    <t>betha</t>
+  </si>
+  <si>
+    <t>4S1P</t>
+  </si>
+  <si>
+    <t>CTJ30</t>
+  </si>
+  <si>
+    <t>MLU</t>
   </si>
 </sst>
 </file>
@@ -4517,7 +4536,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4598,10 +4617,6 @@
       <c r="B10">
         <v>0.46753302099999999</v>
       </c>
-      <c r="C10">
-        <f>A10*B10</f>
-        <v>-4.8066947395358495E-2</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -4610,10 +4625,6 @@
       <c r="B11">
         <v>0.466123287</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:C30" si="0">A11*B11</f>
-        <v>0.60067816401171592</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -4622,10 +4633,6 @@
       <c r="B12">
         <v>0.46628820900000001</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1.2500608685910841</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -4634,10 +4641,6 @@
       <c r="B13">
         <v>0.466061002</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>1.8978474723052019</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -4646,10 +4649,6 @@
       <c r="B14">
         <v>0.464352979</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>2.5371592034859609</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -4658,10 +4657,6 @@
       <c r="B15">
         <v>0.46609217200000003</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>3.1952976816990324</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -4670,177 +4665,117 @@
       <c r="B16">
         <v>0.46525865300000002</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>3.8369802018938994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8.4434579999999997</v>
       </c>
       <c r="B17">
         <v>0.46658995399999997</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>3.9396326798209316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8.6393430000000002</v>
       </c>
       <c r="B18">
         <v>0.46668321499999998</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>4.0318363667277453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8.8362669999999994</v>
       </c>
       <c r="B19">
         <v>0.466533947</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>4.1224185202558488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9.0327129999999993</v>
       </c>
       <c r="B20">
         <v>0.46977314799999997</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>4.2433260209905237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9.2288230000000002</v>
       </c>
       <c r="B21">
         <v>0.46365609000000002</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>4.2789999874820701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9.4254940000000005</v>
       </c>
       <c r="B22">
         <v>0.46472934399999999</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>4.3803036434959362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9.6220250000000007</v>
       </c>
       <c r="B23">
         <v>0.45954890999999998</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>4.4217911007427499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9.8182189999999991</v>
       </c>
       <c r="B24">
         <v>0.45934665000000002</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>4.5099660066163496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10.014918</v>
       </c>
       <c r="B25">
         <v>0.44676739500000001</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>4.4743388259986103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10.212263</v>
       </c>
       <c r="B26">
         <v>0.41196924600000001</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>4.2071382880636978</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10.40812</v>
       </c>
       <c r="B27">
         <v>0.33564919399999998</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>3.49347708905528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10.604875</v>
       </c>
       <c r="B28">
         <v>0.220862738</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>2.34222172864775</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10.802108</v>
       </c>
       <c r="B29">
         <v>8.3216727000000004E-2</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>0.89891607246051608</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10.999874</v>
       </c>
       <c r="B30">
         <v>1.5420259999999999E-3</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>1.6962091704724E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4854,7 +4789,7 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5949,10 +5884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11630F1-ED86-4572-B248-164DC8A7D5C2}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6021,12 +5956,896 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5.8910200000000003E-2</v>
+      </c>
+      <c r="B9">
+        <v>9.0010300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.58910200000000001</v>
+      </c>
+      <c r="B10">
+        <v>9.0010300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1.7378499999999999</v>
+      </c>
+      <c r="B11">
+        <v>8.9804300000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.1207699999999998</v>
+      </c>
+      <c r="B12">
+        <v>8.9804300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2.6804100000000002</v>
+      </c>
+      <c r="B13">
+        <v>8.9701299999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.2105999999999999</v>
+      </c>
+      <c r="B14">
+        <v>8.9701299999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3.9175300000000002</v>
+      </c>
+      <c r="B15">
+        <v>8.9804300000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4.6244500000000004</v>
+      </c>
+      <c r="B16">
+        <v>8.9701299999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5.3902799999999997</v>
+      </c>
+      <c r="B17">
+        <v>8.9701299999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5.9204699999999999</v>
+      </c>
+      <c r="B18">
+        <v>8.9701299999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6.5979400000000004</v>
+      </c>
+      <c r="B19">
+        <v>8.9701299999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7.0397600000000002</v>
+      </c>
+      <c r="B20">
+        <v>8.9701299999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7.7761399999999998</v>
+      </c>
+      <c r="B21">
+        <v>8.9495400000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8.24742</v>
+      </c>
+      <c r="B22">
+        <v>8.9598399999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9.2783499999999997</v>
+      </c>
+      <c r="B23">
+        <v>8.9701299999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9.9852699999999999</v>
+      </c>
+      <c r="B24">
+        <v>8.9598399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10.6038</v>
+      </c>
+      <c r="B25">
+        <v>8.9598399999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>11.458</v>
+      </c>
+      <c r="B26">
+        <v>8.9598399999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>12.106</v>
+      </c>
+      <c r="B27">
+        <v>8.9495400000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>13.078099999999999</v>
+      </c>
+      <c r="B28">
+        <v>8.9495400000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>13.8733</v>
+      </c>
+      <c r="B29">
+        <v>8.9495400000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>14.8454</v>
+      </c>
+      <c r="B30">
+        <v>8.9186399999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>15.9941</v>
+      </c>
+      <c r="B31">
+        <v>8.9289400000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>16.818899999999999</v>
+      </c>
+      <c r="B32">
+        <v>8.9083400000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>17.4374</v>
+      </c>
+      <c r="B33">
+        <v>8.9083400000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>17.938099999999999</v>
+      </c>
+      <c r="B34">
+        <v>8.8877400000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>18.645099999999999</v>
+      </c>
+      <c r="B35">
+        <v>8.9083400000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>19.558199999999999</v>
+      </c>
+      <c r="B36">
+        <v>8.8877400000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>20.382899999999999</v>
+      </c>
+      <c r="B37">
+        <v>8.8877400000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>21.207699999999999</v>
+      </c>
+      <c r="B38">
+        <v>8.8671500000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>22.4742</v>
+      </c>
+      <c r="B39">
+        <v>8.8671500000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>23.681899999999999</v>
+      </c>
+      <c r="B40">
+        <v>8.8362499999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>24.5655</v>
+      </c>
+      <c r="B41">
+        <v>8.8156499999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>25.419699999999999</v>
+      </c>
+      <c r="B42">
+        <v>8.7847600000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>26.3034</v>
+      </c>
+      <c r="B43">
+        <v>8.7641600000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>27.098700000000001</v>
+      </c>
+      <c r="B44">
+        <v>8.7435600000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>27.628900000000002</v>
+      </c>
+      <c r="B45">
+        <v>8.7229700000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>28.3063</v>
+      </c>
+      <c r="B46">
+        <v>8.6405799999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>29.101600000000001</v>
+      </c>
+      <c r="B47">
+        <v>8.5581899999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>29.631799999999998</v>
+      </c>
+      <c r="B48">
+        <v>8.5272900000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>29.896899999999999</v>
+      </c>
+      <c r="B49">
+        <v>8.4757999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>30.191500000000001</v>
+      </c>
+      <c r="B50">
+        <v>8.4140099999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>30.544899999999998</v>
+      </c>
+      <c r="B51">
+        <v>8.3625100000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>30.6922</v>
+      </c>
+      <c r="B52">
+        <v>8.3007200000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>30.839500000000001</v>
+      </c>
+      <c r="B53">
+        <v>8.2595299999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>31.163499999999999</v>
+      </c>
+      <c r="B54">
+        <v>8.1668400000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>31.487500000000001</v>
+      </c>
+      <c r="B55">
+        <v>8.0844500000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>31.664200000000001</v>
+      </c>
+      <c r="B56">
+        <v>8.0329599999999992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>31.811499999999999</v>
+      </c>
+      <c r="B57">
+        <v>7.9711600000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>32.017699999999998</v>
+      </c>
+      <c r="B58">
+        <v>7.89907</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>32.194400000000002</v>
+      </c>
+      <c r="B59">
+        <v>7.8269799999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>32.43</v>
+      </c>
+      <c r="B60">
+        <v>7.7548899999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>32.577300000000001</v>
+      </c>
+      <c r="B61">
+        <v>7.65191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>32.724600000000002</v>
+      </c>
+      <c r="B62">
+        <v>7.5386199999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>32.783499999999997</v>
+      </c>
+      <c r="B63">
+        <v>7.4871299999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>33.019100000000002</v>
+      </c>
+      <c r="B64">
+        <v>7.3120500000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>33.225299999999997</v>
+      </c>
+      <c r="B65">
+        <v>7.1781699999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>33.4315</v>
+      </c>
+      <c r="B66">
+        <v>7.0030900000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>33.637700000000002</v>
+      </c>
+      <c r="B67">
+        <v>6.9001000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>33.784999999999997</v>
+      </c>
+      <c r="B68">
+        <v>6.7559199999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>33.932299999999998</v>
+      </c>
+      <c r="B69">
+        <v>6.5705499999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>33.991199999999999</v>
+      </c>
+      <c r="B70">
+        <v>6.4263599999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>34.109000000000002</v>
+      </c>
+      <c r="B71">
+        <v>6.26159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>34.197299999999998</v>
+      </c>
+      <c r="B72">
+        <v>6.1482999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>34.374099999999999</v>
+      </c>
+      <c r="B73">
+        <v>5.9320300000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>34.5214</v>
+      </c>
+      <c r="B74">
+        <v>5.80844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>34.639200000000002</v>
+      </c>
+      <c r="B75">
+        <v>5.5818700000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>34.727499999999999</v>
+      </c>
+      <c r="B76">
+        <v>5.4479899999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>34.845399999999998</v>
+      </c>
+      <c r="B77">
+        <v>5.3347100000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>34.992600000000003</v>
+      </c>
+      <c r="B78">
+        <v>5.0978399999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>34.992600000000003</v>
+      </c>
+      <c r="B79">
+        <v>5.0463399999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>35.110500000000002</v>
+      </c>
+      <c r="B80">
+        <v>4.9124600000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>35.169400000000003</v>
+      </c>
+      <c r="B81">
+        <v>4.7270899999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>35.2577</v>
+      </c>
+      <c r="B82">
+        <v>4.6138000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>35.2577</v>
+      </c>
+      <c r="B83">
+        <v>4.6138000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>35.405000000000001</v>
+      </c>
+      <c r="B84">
+        <v>4.3460400000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>35.552300000000002</v>
+      </c>
+      <c r="B85">
+        <v>4.1091699999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>35.581699999999998</v>
+      </c>
+      <c r="B86">
+        <v>3.8414000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>35.728999999999999</v>
+      </c>
+      <c r="B87">
+        <v>3.5118399999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>35.876300000000001</v>
+      </c>
+      <c r="B88">
+        <v>3.2131799999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>35.994100000000003</v>
+      </c>
+      <c r="B89">
+        <v>2.90422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>36.111899999999999</v>
+      </c>
+      <c r="B90">
+        <v>2.4716800000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>36.200299999999999</v>
+      </c>
+      <c r="B91">
+        <v>2.3069000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>36.111899999999999</v>
+      </c>
+      <c r="B92">
+        <v>2.10093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>36.2592</v>
+      </c>
+      <c r="B93">
+        <v>1.99794</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>36.288699999999999</v>
+      </c>
+      <c r="B94">
+        <v>1.8434600000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>36.377000000000002</v>
+      </c>
+      <c r="B95">
+        <v>1.6477900000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>36.465400000000002</v>
+      </c>
+      <c r="B96">
+        <v>1.4315100000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>36.494799999999998</v>
+      </c>
+      <c r="B97">
+        <v>1.24614</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>36.553800000000003</v>
+      </c>
+      <c r="B98">
+        <v>1.0195700000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>36.642099999999999</v>
+      </c>
+      <c r="B99">
+        <v>0.85478900000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>36.642099999999999</v>
+      </c>
+      <c r="B100">
+        <v>0.69001000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>36.671599999999998</v>
+      </c>
+      <c r="B101">
+        <v>0.47373799999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>36.818899999999999</v>
+      </c>
+      <c r="B102">
+        <v>0.20597299999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>36.877800000000001</v>
+      </c>
+      <c r="B103">
+        <v>0.102987</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>36.877800000000001</v>
+      </c>
+      <c r="B104">
+        <v>2.0597299999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47D0A35-D9D9-4CCC-9824-CC61FE81B93B}">
+  <dimension ref="D4:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0.46753302099999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>0.45934665000000002</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>9.8182189999999991</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.31</v>
+      </c>
+      <c r="G8" s="1">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>10.999874</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="G9" s="1">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
+        <f>E8/E9</f>
+        <v>0.89257558768400425</v>
+      </c>
+      <c r="F10" s="1">
+        <f>F8/F9</f>
+        <v>0.88505747126436785</v>
+      </c>
+      <c r="G10" s="1">
+        <f>G8/G9</f>
+        <v>0.82539682539682546</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E7/E6</f>
+        <v>0.98249028275587835</v>
+      </c>
+      <c r="F11" s="1">
+        <f>F7/F6</f>
+        <v>0.95983086680761109</v>
+      </c>
+      <c r="G11" s="1">
+        <f>G7/G6</f>
+        <v>0.92013498312710906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -6238,7 +7057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -6450,7 +7269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>

--- a/Trabajo 2. Modelos explicitos/Datos P2/curvas_DHV.xlsx
+++ b/Trabajo 2. Modelos explicitos/Datos P2/curvas_DHV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BE813D-B768-47C2-8F9A-F8F59C4A99B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36F1F8A-0FDD-4C60-83F1-86CE11367C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1200" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4S1P" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Vn(V)</t>
   </si>
@@ -99,6 +99,39 @@
   <si>
     <t>MLU</t>
   </si>
+  <si>
+    <t>%%% 4S1P %%%</t>
+  </si>
+  <si>
+    <t>--&gt; Pendiente @ start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -0.0004673x </t>
+  </si>
+  <si>
+    <t>--&gt; Pendiente @ end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -0.57789x </t>
+  </si>
+  <si>
+    <t>%%% CTJ30 %%%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -0.0131853x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -1.6902x </t>
+  </si>
+  <si>
+    <t>%%% MLU %%%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -0.0046559x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     -2.8998550x </t>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,13 +165,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,7 +210,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -196,7 +247,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -239,7 +290,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-0.102809738</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.2886679999999999</c:v>
@@ -449,7 +500,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="763811672"/>
@@ -511,7 +562,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="763810032"/>
@@ -559,7 +610,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -570,10 +621,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -610,7 +661,2661 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'8S5P'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>In(A)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'8S5P'!$A$5:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.107924966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6006900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3062199999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0114649999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.720637999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.425043000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.132532000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.586684999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.039985999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.495263999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.949974000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.404402000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.857431999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.314665000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.770780999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.225211000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.679635999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.128457999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.589621999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.046576999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.500163000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'8S5P'!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.3313299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.325472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3172769999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3197079999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3146909999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2990189999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2963089999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2905769999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2996439999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2990819999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2937850000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2856230000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2471749999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1205250000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8670040000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4933129999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99075819099999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.389780617</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.23751879000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.722524E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.41753534E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1BD2-4EDA-8FF9-F472F48D0532}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="735571384"/>
+        <c:axId val="735563840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="735571384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735563840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="735563840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735571384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>begin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4S1P'!$A$10:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2886679999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.680876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.072101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4638590000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4S1P'!$B$10:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.46753302099999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.466123287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46628820900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.466061002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.464352979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E229-4C95-8D92-4B9D33FDD4B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="613479080"/>
+        <c:axId val="613481376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="613479080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613481376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="613481376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613479080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>end</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12618678915135609"/>
+                  <c:y val="-0.22492141509451194"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4S1P'!$A$27:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.40812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.604875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.802108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.999874</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4S1P'!$B$27:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.33564919399999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.220862738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3216727000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5420259999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55F2-4BB9-8D9E-EF98667C2B7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="617852672"/>
+        <c:axId val="617853000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="617852672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617853000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="617853000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617852672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8618949536413637E-2"/>
+                  <c:y val="-6.8097711852408496E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTJ30'!$A$9:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.72093E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.18023E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4883699999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6686E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.84884E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13081400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTJ30'!$B$9:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.47569400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47569400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47453699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47569400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48032399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47222199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF0D-45D6-9079-C0FE8FBB92AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="617841192"/>
+        <c:axId val="617848408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="617841192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617848408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="617848408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617841192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9971994761578652E-2"/>
+                  <c:y val="-0.19310508354628014"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'CTJ30'!$A$128:$A$135</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.59884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6032000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6075599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6206399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6032000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.63808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CTJ30'!$B$128:$B$135</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.6805599999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0601899999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9027799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6203700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.15741E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7870400000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD49-489C-9757-056AE9FB0F42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="459535672"/>
+        <c:axId val="459535016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="459535672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459535016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="459535016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459535672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MLU!$A$9:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5.8910200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58910200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7378499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1207699999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6804100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2105999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9175300000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6244500000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3902799999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9204699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5979400000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0397600000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7761399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MLU!$B$9:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9.0010300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0010300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9804300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9804300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9701299999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9701299999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9804300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9701299999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9701299999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9701299999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9701299999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9701299999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9495400000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B19E-478F-B1AB-EAE97105A0DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="671267520"/>
+        <c:axId val="671267848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="671267520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671267848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="671267848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671267520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14209242555699247"/>
+                  <c:y val="-0.12166693145196211"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.0000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MLU!$A$98:$A$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>36.553800000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.642099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.642099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.671599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.818899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.877800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.877800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MLU!$B$98:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0195700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85478900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69001000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47373799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20597299999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.102987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0597299999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD89-4CBB-98A5-FA2AC4A8DBEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="678331240"/>
+        <c:axId val="678330256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="678331240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678330256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="678330256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678331240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -863,7 +3568,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="723475368"/>
@@ -925,7 +3630,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="723472744"/>
@@ -973,7 +3678,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -984,10 +3689,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1024,7 +3729,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1289,7 +3994,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="735707968"/>
@@ -1351,7 +4056,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="735708624"/>
@@ -1399,421 +4104,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'8S5P'!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>In(A)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'8S5P'!$A$5:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>-0.107924966</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6006900000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3062199999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0114649999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.720637999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.425043000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.132532000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.586684999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.039985999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.495263999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.949974000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.404402000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18.857431999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19.314665000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19.770780999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.225211000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.679635999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.128457999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.589621999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22.046576999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22.500163000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'8S5P'!$B$5:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>2.3313299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.325472</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3172769999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3197079999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3146909999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2990189999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2963089999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2905769999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2996439999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2990819999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.2937850000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2856230000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2471749999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.1205250000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.8670040000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4933129999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99075819099999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.389780617</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.23751879000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.722524E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.41753534E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1BD2-4EDA-8FF9-F472F48D0532}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="735571384"/>
-        <c:axId val="735563840"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="735571384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="735563840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="735563840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="735571384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1825,6 +4116,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1984,6 +4315,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2500,7 +5031,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3016,7 +5547,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3532,7 +6063,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4086,10 +9713,236 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>103822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130492</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240BA7E3-7676-441A-8014-EFDE956DD79C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>589597</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>284797</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>63817</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A0F781-0AED-4852-B7FE-B20C2A106793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383856</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>136207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168592</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD204DB-8A1A-4D37-8364-E3417935E0BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D03660-9E09-4B3F-B0E7-77057B463960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD69E26-23F3-4F53-9645-563AA8A19ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>524827</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>364807</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>122872</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664FB15F-EEA1-41AD-BEB5-9EA10919C1F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4130,7 +9983,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4171,7 +10024,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4213,7 +10066,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4533,20 +10386,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4557,7 +10410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4568,7 +10421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4576,15 +10429,18 @@
         <v>9.8182189999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>10.999874</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="R4" s="2">
+        <v>4.6729999999999997E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -4593,7 +10449,7 @@
         <v>0.89257558768400425</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -4602,7 +10458,7 @@
         <v>0.98249028275587835</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4610,172 +10466,256 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-0.102809738</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0.46753302099999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f>B10*1000</f>
+        <v>467.53302100000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.2886679999999999</v>
       </c>
       <c r="B11">
         <v>0.466123287</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f t="shared" ref="C11:C30" si="0">B11*1000</f>
+        <v>466.123287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.680876</v>
       </c>
       <c r="B12">
         <v>0.46628820900000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>466.28820899999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.072101</v>
       </c>
       <c r="B13">
         <v>0.466061002</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>466.06100200000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5.4638590000000002</v>
       </c>
       <c r="B14">
         <v>0.464352979</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>464.352979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6.8555060000000001</v>
       </c>
       <c r="B15">
         <v>0.46609217200000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>466.09217200000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8.2469830000000002</v>
       </c>
       <c r="B16">
         <v>0.46525865300000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>465.25865300000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8.4434579999999997</v>
       </c>
       <c r="B17">
         <v>0.46658995399999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>466.58995399999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8.6393430000000002</v>
       </c>
       <c r="B18">
         <v>0.46668321499999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>466.68321499999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8.8362669999999994</v>
       </c>
       <c r="B19">
         <v>0.466533947</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>466.53394700000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9.0327129999999993</v>
       </c>
       <c r="B20">
         <v>0.46977314799999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>469.77314799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9.2288230000000002</v>
       </c>
       <c r="B21">
         <v>0.46365609000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>463.65609000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9.4254940000000005</v>
       </c>
       <c r="B22">
         <v>0.46472934399999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>464.72934399999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9.6220250000000007</v>
       </c>
       <c r="B23">
         <v>0.45954890999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>459.54890999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9.8182189999999991</v>
       </c>
       <c r="B24">
         <v>0.45934665000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>459.34665000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10.014918</v>
       </c>
       <c r="B25">
         <v>0.44676739500000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>446.76739500000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10.212263</v>
       </c>
       <c r="B26">
         <v>0.41196924600000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>411.969246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10.40812</v>
       </c>
       <c r="B27">
         <v>0.33564919399999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>335.64919399999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10.604875</v>
       </c>
       <c r="B28">
         <v>0.220862738</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>220.86273800000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10.802108</v>
       </c>
       <c r="B29">
         <v>8.3216727000000004E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>83.216727000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10.999874</v>
       </c>
       <c r="B30">
         <v>1.5420259999999999E-3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1.5420259999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4788,11 +10728,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C3D4BB-B71D-4B7E-B587-600311F1A074}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B135" sqref="A117:B135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.5546875" style="1"/>
   </cols>
@@ -5879,6 +11819,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5886,11 +11827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11630F1-ED86-4572-B248-164DC8A7D5C2}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B6"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -6726,118 +12667,182 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47D0A35-D9D9-4CCC-9824-CC61FE81B93B}">
-  <dimension ref="D4:G11"/>
+  <dimension ref="D4:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.46753302099999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>0.47299999999999998</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>8.89</v>
       </c>
-    </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.45934665000000002</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>0.45400000000000001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>9.8182189999999991</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>2.31</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>31.2</v>
       </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>10.999874</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>2.61</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <f>E8/E9</f>
         <v>0.89257558768400425</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <f>F8/F9</f>
         <v>0.88505747126436785</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <f>G8/G9</f>
         <v>0.82539682539682546</v>
       </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <f>E7/E6</f>
         <v>0.98249028275587835</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <f>F7/F6</f>
         <v>0.95983086680761109</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <f>G7/G6</f>
         <v>0.92013498312710906</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6853,7 +12858,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
@@ -7065,7 +13070,7 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
@@ -7277,7 +13282,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
